--- a/results/data/CG_masterpie.xlsx
+++ b/results/data/CG_masterpie.xlsx
@@ -414,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1283040.338</v>
+        <v>1283040.337999999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -422,7 +422,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>7771.034000000001</v>
+        <v>7771.034000000002</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -430,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>928523.1649999992</v>
+        <v>928523.1649999979</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -438,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>706.4229999999999</v>
+        <v>706.423</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -454,7 +454,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>925690.9810000011</v>
+        <v>925963.0650000017</v>
       </c>
     </row>
   </sheetData>
